--- a/Amazon/resources/TestData.xlsx
+++ b/Amazon/resources/TestData.xlsx
@@ -19,19 +19,19 @@
     <t>Username</t>
   </si>
   <si>
-    <t>batman554466@gmail.com</t>
+    <t>ironman6644@gmail.com</t>
   </si>
   <si>
-    <t>superman554466@gmail.com</t>
+    <t>captainamerica6644@gmail.com</t>
   </si>
   <si>
-    <t>ironman554466@gmail.com</t>
+    <t>hulk6644@gmail.com</t>
   </si>
   <si>
-    <t>spiderman554466@gmail.com</t>
+    <t>thor6644@gmail.com</t>
   </si>
   <si>
-    <t>captainplanet554466@gmail.com</t>
+    <t>hawkeye6644@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -28351,13 +28351,6 @@
       <c r="Z1000" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-  </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>